--- a/Excel-XLSX/UN-THA.xlsx
+++ b/Excel-XLSX/UN-THA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="1163">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>5U5izX</t>
+    <t>yRFi69</t>
   </si>
   <si>
     <t>1975</t>
@@ -3456,12 +3456,12 @@
     <t>768</t>
   </si>
   <si>
-    <t>81243</t>
-  </si>
-  <si>
     <t>769</t>
   </si>
   <si>
+    <t>81005</t>
+  </si>
+  <si>
     <t>770</t>
   </si>
   <si>
@@ -3471,22 +3471,28 @@
     <t>772</t>
   </si>
   <si>
+    <t>1157</t>
+  </si>
+  <si>
     <t>773</t>
   </si>
   <si>
     <t>774</t>
   </si>
   <si>
-    <t>963</t>
-  </si>
-  <si>
     <t>775</t>
   </si>
   <si>
-    <t>587083</t>
+    <t>899</t>
+  </si>
+  <si>
+    <t>1278</t>
   </si>
   <si>
     <t>776</t>
+  </si>
+  <si>
+    <t>612524</t>
   </si>
   <si>
     <t>777</t>
@@ -55000,10 +55006,10 @@
         <v>31</v>
       </c>
       <c r="N752" s="2" t="s">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="O752" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="P752" s="2" t="s">
         <v>33</v>
@@ -55068,7 +55074,7 @@
         <v>31</v>
       </c>
       <c r="N753" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O753" s="2" t="s">
         <v>51</v>
@@ -55136,10 +55142,10 @@
         <v>31</v>
       </c>
       <c r="N754" s="2" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="O754" s="2" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="P754" s="2" t="s">
         <v>33</v>
@@ -55204,10 +55210,10 @@
         <v>31</v>
       </c>
       <c r="N755" s="2" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="O755" s="2" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="P755" s="2" t="s">
         <v>33</v>
@@ -55272,10 +55278,10 @@
         <v>31</v>
       </c>
       <c r="N756" s="2" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="O756" s="2" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="P756" s="2" t="s">
         <v>33</v>
@@ -55340,7 +55346,7 @@
         <v>31</v>
       </c>
       <c r="N757" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="O757" s="2" t="s">
         <v>51</v>
@@ -55408,10 +55414,10 @@
         <v>31</v>
       </c>
       <c r="N758" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O758" s="2" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P758" s="2" t="s">
         <v>33</v>
@@ -55476,7 +55482,7 @@
         <v>31</v>
       </c>
       <c r="N759" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="O759" s="2" t="s">
         <v>51</v>
@@ -55656,16 +55662,16 @@
         <v>1128</v>
       </c>
       <c r="F762" s="2" t="s">
-        <v>97</v>
+        <v>266</v>
       </c>
       <c r="G762" s="1" t="s">
-        <v>98</v>
+        <v>408</v>
       </c>
       <c r="H762" s="1" t="s">
-        <v>99</v>
+        <v>409</v>
       </c>
       <c r="I762" s="1" t="s">
-        <v>99</v>
+        <v>409</v>
       </c>
       <c r="J762" s="2" t="s">
         <v>29</v>
@@ -55680,10 +55686,10 @@
         <v>31</v>
       </c>
       <c r="N762" s="2" t="s">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c r="O762" s="2" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="P762" s="2" t="s">
         <v>33</v>
@@ -55724,16 +55730,16 @@
         <v>1128</v>
       </c>
       <c r="F763" s="2" t="s">
-        <v>272</v>
+        <v>97</v>
       </c>
       <c r="G763" s="1" t="s">
-        <v>293</v>
+        <v>98</v>
       </c>
       <c r="H763" s="1" t="s">
-        <v>294</v>
+        <v>99</v>
       </c>
       <c r="I763" s="1" t="s">
-        <v>294</v>
+        <v>99</v>
       </c>
       <c r="J763" s="2" t="s">
         <v>29</v>
@@ -55748,10 +55754,10 @@
         <v>31</v>
       </c>
       <c r="N763" s="2" t="s">
-        <v>278</v>
+        <v>214</v>
       </c>
       <c r="O763" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="P763" s="2" t="s">
         <v>33</v>
@@ -55792,34 +55798,34 @@
         <v>1128</v>
       </c>
       <c r="F764" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G764" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H764" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I764" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J764" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K764" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L764" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M764" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N764" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G764" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="H764" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="I764" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="J764" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K764" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L764" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M764" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N764" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="O764" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P764" s="2" t="s">
         <v>33</v>
@@ -55860,16 +55866,16 @@
         <v>1128</v>
       </c>
       <c r="F765" s="2" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="G765" s="1" t="s">
-        <v>610</v>
+        <v>728</v>
       </c>
       <c r="H765" s="1" t="s">
-        <v>611</v>
+        <v>729</v>
       </c>
       <c r="I765" s="1" t="s">
-        <v>612</v>
+        <v>729</v>
       </c>
       <c r="J765" s="2" t="s">
         <v>29</v>
@@ -55928,16 +55934,16 @@
         <v>1128</v>
       </c>
       <c r="F766" s="2" t="s">
-        <v>37</v>
+        <v>292</v>
       </c>
       <c r="G766" s="1" t="s">
-        <v>38</v>
+        <v>610</v>
       </c>
       <c r="H766" s="1" t="s">
-        <v>39</v>
+        <v>611</v>
       </c>
       <c r="I766" s="1" t="s">
-        <v>39</v>
+        <v>612</v>
       </c>
       <c r="J766" s="2" t="s">
         <v>29</v>
@@ -55952,10 +55958,10 @@
         <v>31</v>
       </c>
       <c r="N766" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O766" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P766" s="2" t="s">
         <v>33</v>
@@ -55996,16 +56002,16 @@
         <v>1128</v>
       </c>
       <c r="F767" s="2" t="s">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c r="G767" s="1" t="s">
-        <v>225</v>
+        <v>38</v>
       </c>
       <c r="H767" s="1" t="s">
-        <v>226</v>
+        <v>39</v>
       </c>
       <c r="I767" s="1" t="s">
-        <v>226</v>
+        <v>39</v>
       </c>
       <c r="J767" s="2" t="s">
         <v>29</v>
@@ -56020,10 +56026,10 @@
         <v>31</v>
       </c>
       <c r="N767" s="2" t="s">
-        <v>215</v>
+        <v>51</v>
       </c>
       <c r="O767" s="2" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="P767" s="2" t="s">
         <v>33</v>
@@ -56064,16 +56070,16 @@
         <v>1128</v>
       </c>
       <c r="F768" s="2" t="s">
-        <v>333</v>
+        <v>224</v>
       </c>
       <c r="G768" s="1" t="s">
-        <v>777</v>
+        <v>225</v>
       </c>
       <c r="H768" s="1" t="s">
-        <v>778</v>
+        <v>226</v>
       </c>
       <c r="I768" s="1" t="s">
-        <v>779</v>
+        <v>226</v>
       </c>
       <c r="J768" s="2" t="s">
         <v>29</v>
@@ -56088,10 +56094,10 @@
         <v>31</v>
       </c>
       <c r="N768" s="2" t="s">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="O768" s="2" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="P768" s="2" t="s">
         <v>33</v>
@@ -56132,16 +56138,16 @@
         <v>1128</v>
       </c>
       <c r="F769" s="2" t="s">
-        <v>228</v>
+        <v>333</v>
       </c>
       <c r="G769" s="1" t="s">
-        <v>229</v>
+        <v>777</v>
       </c>
       <c r="H769" s="1" t="s">
-        <v>230</v>
+        <v>778</v>
       </c>
       <c r="I769" s="1" t="s">
-        <v>231</v>
+        <v>779</v>
       </c>
       <c r="J769" s="2" t="s">
         <v>29</v>
@@ -56156,7 +56162,7 @@
         <v>31</v>
       </c>
       <c r="N769" s="2" t="s">
-        <v>1146</v>
+        <v>51</v>
       </c>
       <c r="O769" s="2" t="s">
         <v>33</v>
@@ -56174,7 +56180,7 @@
         <v>33</v>
       </c>
       <c r="T769" s="2" t="s">
-        <v>877</v>
+        <v>33</v>
       </c>
       <c r="U769" s="1" t="s">
         <v>35</v>
@@ -56194,22 +56200,22 @@
         <v>22</v>
       </c>
       <c r="D770" s="2" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E770" s="2" t="s">
         <v>1128</v>
       </c>
       <c r="F770" s="2" t="s">
-        <v>341</v>
+        <v>228</v>
       </c>
       <c r="G770" s="1" t="s">
-        <v>427</v>
+        <v>229</v>
       </c>
       <c r="H770" s="1" t="s">
-        <v>428</v>
+        <v>230</v>
       </c>
       <c r="I770" s="1" t="s">
-        <v>429</v>
+        <v>231</v>
       </c>
       <c r="J770" s="2" t="s">
         <v>29</v>
@@ -56224,7 +56230,7 @@
         <v>31</v>
       </c>
       <c r="N770" s="2" t="s">
-        <v>51</v>
+        <v>1147</v>
       </c>
       <c r="O770" s="2" t="s">
         <v>33</v>
@@ -56242,7 +56248,7 @@
         <v>33</v>
       </c>
       <c r="T770" s="2" t="s">
-        <v>33</v>
+        <v>723</v>
       </c>
       <c r="U770" s="1" t="s">
         <v>35</v>
@@ -56268,16 +56274,16 @@
         <v>1128</v>
       </c>
       <c r="F771" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G771" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H771" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I771" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J771" s="2" t="s">
         <v>29</v>
@@ -56292,10 +56298,10 @@
         <v>31</v>
       </c>
       <c r="N771" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="O771" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P771" s="2" t="s">
         <v>33</v>
@@ -56336,16 +56342,16 @@
         <v>1128</v>
       </c>
       <c r="F772" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G772" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H772" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I772" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J772" s="2" t="s">
         <v>29</v>
@@ -56360,10 +56366,10 @@
         <v>31</v>
       </c>
       <c r="N772" s="2" t="s">
-        <v>1117</v>
+        <v>33</v>
       </c>
       <c r="O772" s="2" t="s">
-        <v>956</v>
+        <v>83</v>
       </c>
       <c r="P772" s="2" t="s">
         <v>33</v>
@@ -56404,16 +56410,16 @@
         <v>1128</v>
       </c>
       <c r="F773" s="2" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="G773" s="1" t="s">
-        <v>792</v>
+        <v>435</v>
       </c>
       <c r="H773" s="1" t="s">
-        <v>793</v>
+        <v>436</v>
       </c>
       <c r="I773" s="1" t="s">
-        <v>793</v>
+        <v>436</v>
       </c>
       <c r="J773" s="2" t="s">
         <v>29</v>
@@ -56428,10 +56434,10 @@
         <v>31</v>
       </c>
       <c r="N773" s="2" t="s">
-        <v>33</v>
+        <v>1151</v>
       </c>
       <c r="O773" s="2" t="s">
-        <v>51</v>
+        <v>1080</v>
       </c>
       <c r="P773" s="2" t="s">
         <v>33</v>
@@ -56466,22 +56472,22 @@
         <v>22</v>
       </c>
       <c r="D774" s="2" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E774" s="2" t="s">
         <v>1128</v>
       </c>
       <c r="F774" s="2" t="s">
-        <v>234</v>
+        <v>373</v>
       </c>
       <c r="G774" s="1" t="s">
-        <v>235</v>
+        <v>792</v>
       </c>
       <c r="H774" s="1" t="s">
-        <v>236</v>
+        <v>793</v>
       </c>
       <c r="I774" s="1" t="s">
-        <v>236</v>
+        <v>793</v>
       </c>
       <c r="J774" s="2" t="s">
         <v>29</v>
@@ -56496,10 +56502,10 @@
         <v>31</v>
       </c>
       <c r="N774" s="2" t="s">
-        <v>319</v>
+        <v>33</v>
       </c>
       <c r="O774" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="P774" s="2" t="s">
         <v>33</v>
@@ -56534,22 +56540,22 @@
         <v>22</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="E775" s="2" t="s">
         <v>1128</v>
       </c>
       <c r="F775" s="2" t="s">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="G775" s="1" t="s">
-        <v>43</v>
+        <v>235</v>
       </c>
       <c r="H775" s="1" t="s">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="I775" s="1" t="s">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="J775" s="2" t="s">
         <v>29</v>
@@ -56564,10 +56570,10 @@
         <v>31</v>
       </c>
       <c r="N775" s="2" t="s">
-        <v>1153</v>
+        <v>311</v>
       </c>
       <c r="O775" s="2" t="s">
-        <v>1153</v>
+        <v>126</v>
       </c>
       <c r="P775" s="2" t="s">
         <v>33</v>
@@ -56608,16 +56614,16 @@
         <v>1128</v>
       </c>
       <c r="F776" s="2" t="s">
-        <v>472</v>
+        <v>42</v>
       </c>
       <c r="G776" s="1" t="s">
-        <v>537</v>
+        <v>43</v>
       </c>
       <c r="H776" s="1" t="s">
-        <v>538</v>
+        <v>44</v>
       </c>
       <c r="I776" s="1" t="s">
-        <v>539</v>
+        <v>45</v>
       </c>
       <c r="J776" s="2" t="s">
         <v>29</v>
@@ -56632,10 +56638,10 @@
         <v>31</v>
       </c>
       <c r="N776" s="2" t="s">
-        <v>33</v>
+        <v>1155</v>
       </c>
       <c r="O776" s="2" t="s">
-        <v>33</v>
+        <v>1156</v>
       </c>
       <c r="P776" s="2" t="s">
         <v>33</v>
@@ -56647,7 +56653,7 @@
         <v>33</v>
       </c>
       <c r="S776" s="2" t="s">
-        <v>1155</v>
+        <v>33</v>
       </c>
       <c r="T776" s="2" t="s">
         <v>33</v>
@@ -56670,22 +56676,22 @@
         <v>22</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="E777" s="2" t="s">
         <v>1128</v>
       </c>
       <c r="F777" s="2" t="s">
-        <v>396</v>
+        <v>472</v>
       </c>
       <c r="G777" s="1" t="s">
-        <v>445</v>
+        <v>537</v>
       </c>
       <c r="H777" s="1" t="s">
-        <v>446</v>
+        <v>538</v>
       </c>
       <c r="I777" s="1" t="s">
-        <v>447</v>
+        <v>539</v>
       </c>
       <c r="J777" s="2" t="s">
         <v>29</v>
@@ -56700,7 +56706,7 @@
         <v>31</v>
       </c>
       <c r="N777" s="2" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="O777" s="2" t="s">
         <v>33</v>
@@ -56715,7 +56721,7 @@
         <v>33</v>
       </c>
       <c r="S777" s="2" t="s">
-        <v>33</v>
+        <v>1158</v>
       </c>
       <c r="T777" s="2" t="s">
         <v>33</v>
@@ -56738,22 +56744,22 @@
         <v>22</v>
       </c>
       <c r="D778" s="2" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="E778" s="2" t="s">
         <v>1128</v>
       </c>
       <c r="F778" s="2" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="G778" s="1" t="s">
-        <v>683</v>
+        <v>445</v>
       </c>
       <c r="H778" s="1" t="s">
-        <v>684</v>
+        <v>446</v>
       </c>
       <c r="I778" s="1" t="s">
-        <v>684</v>
+        <v>447</v>
       </c>
       <c r="J778" s="2" t="s">
         <v>29</v>
@@ -56768,10 +56774,10 @@
         <v>31</v>
       </c>
       <c r="N778" s="2" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="O778" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="P778" s="2" t="s">
         <v>33</v>
@@ -56806,22 +56812,22 @@
         <v>22</v>
       </c>
       <c r="D779" s="2" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="E779" s="2" t="s">
         <v>1128</v>
       </c>
       <c r="F779" s="2" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="G779" s="1" t="s">
-        <v>450</v>
+        <v>683</v>
       </c>
       <c r="H779" s="1" t="s">
-        <v>451</v>
+        <v>684</v>
       </c>
       <c r="I779" s="1" t="s">
-        <v>451</v>
+        <v>684</v>
       </c>
       <c r="J779" s="2" t="s">
         <v>29</v>
@@ -56836,10 +56842,10 @@
         <v>31</v>
       </c>
       <c r="N779" s="2" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="O779" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="P779" s="2" t="s">
         <v>33</v>
@@ -56874,22 +56880,22 @@
         <v>22</v>
       </c>
       <c r="D780" s="2" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="E780" s="2" t="s">
         <v>1128</v>
       </c>
       <c r="F780" s="2" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="G780" s="1" t="s">
-        <v>714</v>
+        <v>450</v>
       </c>
       <c r="H780" s="1" t="s">
-        <v>715</v>
+        <v>451</v>
       </c>
       <c r="I780" s="1" t="s">
-        <v>715</v>
+        <v>451</v>
       </c>
       <c r="J780" s="2" t="s">
         <v>29</v>
@@ -56904,10 +56910,10 @@
         <v>31</v>
       </c>
       <c r="N780" s="2" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="O780" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P780" s="2" t="s">
         <v>33</v>
@@ -56942,22 +56948,22 @@
         <v>22</v>
       </c>
       <c r="D781" s="2" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="E781" s="2" t="s">
         <v>1128</v>
       </c>
       <c r="F781" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G781" s="1" t="s">
-        <v>488</v>
+        <v>714</v>
       </c>
       <c r="H781" s="1" t="s">
-        <v>489</v>
+        <v>715</v>
       </c>
       <c r="I781" s="1" t="s">
-        <v>490</v>
+        <v>715</v>
       </c>
       <c r="J781" s="2" t="s">
         <v>29</v>
@@ -56972,10 +56978,10 @@
         <v>31</v>
       </c>
       <c r="N781" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="O781" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="P781" s="2" t="s">
         <v>33</v>
